--- a/documents/周报.xlsx
+++ b/documents/周报.xlsx
@@ -4,11 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -19,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,13 +58,6 @@
   </si>
   <si>
     <t>初步完成了开发模块的调整，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模块划分：
-ei-memdb-core（内存库核心)：数据库初始化，数据库表字段定义信息读取封装，表读写封装
-ei-memdb(内存库接口层): 基于ei-memdb接口，仿照商用库JPA操作的风格，定义表的读取接口(dao)和实体(entity)
-ei-memdb-tool(内存库工具模块):用于生成ei-memdb中实体类</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -92,11 +88,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1数据总线初始化代码，任务发布(TaskPublisher)和任务订阅(TaskSubscribe)类算法。
-2基于谢涛的数据总线工作，完成任务发布和任务订阅测试。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>分布式计算任务调度部分</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -112,6 +103,47 @@
   </si>
   <si>
     <t>jedis版本必须为3.0.0，因为df以3.0.0开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块划分：
+ei-memdb-core（内存库核心)：数据库初始化，数据库表字段定义信息读取封装，表读写封装
+ei-memdb(内存库接口层): 基于ei-memdb接口，仿照商用库JPA操作的风格，定义表的读取接口(dao)和实体(entity)
+ei-memdb-tool(内存库工具模块):用于生成ei-memdb中实体类
+ei-memdb-check(内存库定义校验工具)
+ei-computing-reliability(可靠性计算模块）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1数据总线初始化代码，任务发布(TaskPublisher)和任务订阅(TaskSubscribe)类算法。
+2基于谢涛的数据总线工作，完成任务发布和任务订阅测试。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共享内存库定义校验
+分布式计算多个计算节点并行测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多线程并发问题通过同步锁绕开，但还是不够完美</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给江轶提内存数据库接口需求及算法模块接口需求
+向谢涛提df接口需求
+测试分布式计算多示例计算并发问题
+向王凯提搭建Redis库需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CtrolList的rpush,llen,lpop多线程访问会有并发问题；
+任务分发节点，偶尔会收不到任务处理消息。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算法接口需求文档
+DF接口需求文档
+ei-computing-reliability任务发布/订阅算法优化</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -181,18 +213,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -201,6 +223,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -512,183 +543,195 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:A1048576"/>
+      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.58203125" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="74.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="38.83203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="24.5546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="33.88671875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="74.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="53.109375" style="6" customWidth="1"/>
+    <col min="7" max="7" width="20.21875" style="6" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="124.2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>42969</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="132.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6">
-        <v>42969</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2" t="s">
+    <row r="3" spans="1:7" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>42970</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="E3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="84" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
-        <v>42970</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="3" t="s">
+    <row r="4" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>42971</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
-        <v>42971</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="F4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="82.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>42972</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="82" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
-        <v>42972</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
+      <c r="C5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>42973</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>42974</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="6">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>42975</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="6">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>42976</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="6">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>42977</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="6">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>42978</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="6">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>42979</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/documents/周报.xlsx
+++ b/documents/周报.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -141,9 +141,100 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>制定本周计划
+编写分布式计算设计方案
+测试多计算节点并发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后评估计算分布化：后评估算法模块调用，计算结果上传，计算结果合并，计算结果同步到关系数据库，计算结果同步到共享内存数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒙特卡罗抽样计算分布化：蒙特卡罗抽样算法调用，计算模型上传，计算任务上传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算结果展示界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算过程及统计界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列1</t>
+  </si>
+  <si>
+    <t>列2</t>
+  </si>
+  <si>
+    <t>列3</t>
+  </si>
+  <si>
+    <t>列4</t>
+  </si>
+  <si>
+    <t>列5</t>
+  </si>
+  <si>
+    <t>分布式计算配置信息存储及加载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与江轶讨论分布式架构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写分布式计算设计方案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试多计算节点并发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定位Redis队列操作的bug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>算法接口需求文档
 DF接口需求文档
 ei-computing-reliability任务发布/订阅算法优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ei-computing-reliability任务发布/订阅算法优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方案编写有点慢，完成了任务分发的时序图，和分布式计算的部署图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写分布式计算设计方案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分布式计算设计方案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要进一步细化对算法调用的需求
+细化Redis数据存储的需求
+细化人机交互界面需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分布式架构任务调度测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务调度还需优化，问题还需要进一步定位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>redis多线程调用，存在并发问题，应采取措施避免，比如RedisControl需要每个线程分配一个示例</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -175,7 +266,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -198,22 +289,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -227,17 +307,196 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="16">
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -263,8 +522,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
-      <tableStyleElement type="headerRow" dxfId="0"/>
+      <tableStyleElement type="wholeTable" dxfId="15"/>
+      <tableStyleElement type="headerRow" dxfId="14"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -276,6 +535,27 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:L1048576" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="A1:L1048576"/>
+  <tableColumns count="12">
+    <tableColumn id="1" name="日期" dataDxfId="11"/>
+    <tableColumn id="2" name="计划任务" dataDxfId="10"/>
+    <tableColumn id="3" name="工作任务" dataDxfId="9"/>
+    <tableColumn id="4" name="工作内容" dataDxfId="8"/>
+    <tableColumn id="5" name="完成情况" dataDxfId="7"/>
+    <tableColumn id="6" name="工作成果" dataDxfId="6"/>
+    <tableColumn id="7" name="问题总结" dataDxfId="5"/>
+    <tableColumn id="8" name="列1" dataDxfId="4"/>
+    <tableColumn id="9" name="列2" dataDxfId="3"/>
+    <tableColumn id="10" name="列3" dataDxfId="2"/>
+    <tableColumn id="11" name="列4" dataDxfId="1"/>
+    <tableColumn id="12" name="列5" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -541,30 +821,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="24.5546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="33.88671875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="74.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="53.109375" style="6" customWidth="1"/>
-    <col min="7" max="7" width="20.21875" style="6" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="32.33203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="33.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="63.88671875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="53.109375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="31" style="4" customWidth="1"/>
     <col min="8" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -582,12 +862,26 @@
       <c r="G1" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="124.2" x14ac:dyDescent="0.25">
+      <c r="H1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>42969</v>
       </c>
-      <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
@@ -601,11 +895,10 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>42970</v>
       </c>
-      <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
@@ -619,11 +912,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>42971</v>
       </c>
-      <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
@@ -640,7 +932,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="82.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>42972</v>
       </c>
@@ -657,85 +949,143 @@
         <v>22</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>42973</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>42974</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:12" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>42975</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>42976</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>42977</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>42978</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>42979</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
+      <c r="B12" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>42980</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>42981</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="69" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>42982</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>42983</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>42984</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>42985</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>42986</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>